--- a/20230731_strata_fee_transactions.xlsx
+++ b/20230731_strata_fee_transactions.xlsx
@@ -8,30 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\DataAnalystCertificate\projects\ShodaClose\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3803FE12-6615-40C2-AA64-A97155ACAFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F68AED6-6DB8-40F9-B339-E5BDAC4C5D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="cleaned data" sheetId="6" r:id="rId2"/>
     <sheet name="pivot" sheetId="8" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cleaned data'!$A$1:$C$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$E$72</definedName>
     <definedName name="Slicer_payer">#N/A</definedName>
-    <definedName name="Slicer_payer1">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId6"/>
-        <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId5"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -56,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -79,27 +77,15 @@
     <t>20230705194805814315</t>
   </si>
   <si>
-    <t>DONGLI LIU</t>
-  </si>
-  <si>
     <t>20230704154714813333</t>
   </si>
   <si>
-    <t>EDWINALBERT IMHOFF</t>
-  </si>
-  <si>
     <t>20230701204439814025</t>
   </si>
   <si>
-    <t>XIAOPENG FENG</t>
-  </si>
-  <si>
     <t>20230630054126813522</t>
   </si>
   <si>
-    <t>TRACY CARRIER</t>
-  </si>
-  <si>
     <t>20230606083305814404</t>
   </si>
   <si>
@@ -118,9 +104,6 @@
     <t>20230501121028813801</t>
   </si>
   <si>
-    <t>SIDDHARTH SINHA</t>
-  </si>
-  <si>
     <t>20230501120957814861</t>
   </si>
   <si>
@@ -301,45 +284,6 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Dec</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>EDWIN ALBERT IMHOFF</t>
-  </si>
-  <si>
     <t>20230801214714813541</t>
   </si>
   <si>
@@ -356,15 +300,32 @@
   </si>
   <si>
     <t>20230726192014813954</t>
+  </si>
+  <si>
+    <t>XP F</t>
+  </si>
+  <si>
+    <t>DL L</t>
+  </si>
+  <si>
+    <t>SH S</t>
+  </si>
+  <si>
+    <t>EA I</t>
+  </si>
+  <si>
+    <t>TC C</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="dd"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -428,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -451,13 +412,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,7 +443,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[strata_fee_20230731.xlsx]pivot!PivotTable1</c:name>
+    <c:name>[20230731_strata_fee_transactions.xlsx]pivot!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -733,19 +687,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>SIDDHARTH SINHA</c:v>
+                  <c:v>SH S</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>XIAOPENG FENG</c:v>
+                  <c:v>XP F</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DONGLI LIU</c:v>
+                  <c:v>DL L</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>TRACY CARRIER</c:v>
+                  <c:v>TC C</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>EDWIN ALBERT IMHOFF</c:v>
+                  <c:v>EA I</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -967,1082 +921,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[strata_fee_20230731.xlsx]Sheet1!PivotTable23</c:name>
-    <c:fmtId val="2"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Strata</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Fee Payment History</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="9"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$5:$A$37</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="15"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>May</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Jun</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Jul</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Oct</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Nov</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Dec</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Jan</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Feb</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Mar</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Mar</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>May</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Jun</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Jul</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Aug</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>27</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>29</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>29</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>31</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>02</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>01</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>05</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>01</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>01</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>02</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>30</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>01</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>06</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>05</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>02</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2022</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2023</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$5:$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-78F7-4A38-A95D-BB8B5D85646F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1337149919"/>
-        <c:axId val="1337142239"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1337149919"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-CA"/>
-                  <a:t>Payment</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> Date</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-CA"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1337142239"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1337142239"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-CA"/>
-                  <a:t>Fee</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> Units Paid</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-CA"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1337149919"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2083,550 +961,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3180,8 +1515,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>89535</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="payer">
@@ -3204,7 +1539,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3215,127 +1550,6 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="8313420" y="182880"/>
-              <a:ext cx="1828800" cy="2466975"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56E17E9D-2CBF-4AB7-8F3E-41DF96504FCC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="payer 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{424E4201-3228-5E35-1528-F8C1DB64273C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="payer 1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2545080" y="3040380"/>
               <a:ext cx="1828800" cy="2466975"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3859,7 +2073,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{915D806B-8927-47A8-8343-DEA578A58961}" name="PivotTable1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{915D806B-8927-47A8-8343-DEA578A58961}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A2:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField numFmtId="15" showAll="0">
@@ -3916,11 +2130,11 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
+        <item n="DL L" x="0"/>
+        <item n="EA I" x="1"/>
+        <item n="SH S" x="2"/>
+        <item n="TC C" x="3"/>
+        <item n="XP F" x="4"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -3997,268 +2211,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B5709480-1479-4DD6-B514-8C458752D08E}" name="PivotTable23" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A4:B37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" numFmtId="168" showAll="0">
-      <items count="48">
-        <item x="0"/>
-        <item x="29"/>
-        <item x="43"/>
-        <item x="16"/>
-        <item x="1"/>
-        <item x="21"/>
-        <item x="30"/>
-        <item x="2"/>
-        <item x="31"/>
-        <item x="17"/>
-        <item x="22"/>
-        <item x="3"/>
-        <item x="32"/>
-        <item x="23"/>
-        <item x="18"/>
-        <item x="33"/>
-        <item x="4"/>
-        <item x="24"/>
-        <item x="34"/>
-        <item x="5"/>
-        <item x="25"/>
-        <item x="35"/>
-        <item x="6"/>
-        <item x="26"/>
-        <item x="36"/>
-        <item x="7"/>
-        <item x="44"/>
-        <item x="37"/>
-        <item x="8"/>
-        <item x="27"/>
-        <item x="38"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="45"/>
-        <item x="39"/>
-        <item x="11"/>
-        <item x="40"/>
-        <item x="12"/>
-        <item x="41"/>
-        <item x="46"/>
-        <item x="20"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="28"/>
-        <item x="42"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0" sumSubtotal="1">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="sum"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="15">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="5"/>
-    <field x="0"/>
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="33">
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
-    <i r="2">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-    <i r="2">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
-    </i>
-    <i r="2">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="25"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="28"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="31"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="32"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="36"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="38"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="42"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="43"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of fee_unit" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_payer" xr10:uid="{1F15D377-5226-4333-9E89-A205101AC46F}" sourceName="payer">
   <pivotTables>
@@ -4278,34 +2230,9 @@
 </slicerCacheDefinition>
 </file>
 
-<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_payer1" xr10:uid="{2054C292-E00F-40B0-A97F-8D0C8DCA2CAD}" sourceName="payer">
-  <pivotTables>
-    <pivotTable tabId="10" name="PivotTable23"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="2056893067">
-      <items count="5">
-        <i x="0" s="1"/>
-        <i x="1"/>
-        <i x="2"/>
-        <i x="3"/>
-        <i x="4"/>
-      </items>
-    </tabular>
-  </data>
-</slicerCacheDefinition>
-</file>
-
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="payer" xr10:uid="{1D1F71E3-701E-4214-9249-E6BB59BF0CA4}" cache="Slicer_payer" caption="payer" rowHeight="234950"/>
-</slicers>
-</file>
-
-<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="payer 1" xr10:uid="{3D2A6F61-D5D4-4E79-A93B-5AD4862FEC00}" cache="Slicer_payer1" caption="payer" rowHeight="234950"/>
 </slicers>
 </file>
 
@@ -4575,7 +2502,7 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4612,10 +2539,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4629,10 +2556,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4646,10 +2573,10 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4663,10 +2590,10 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4680,10 +2607,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4697,10 +2624,10 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4717,7 +2644,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4731,10 +2658,10 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4748,10 +2675,10 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4765,10 +2692,10 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4782,10 +2709,10 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4799,10 +2726,10 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4816,10 +2743,10 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4833,10 +2760,10 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4850,10 +2777,10 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4867,10 +2794,10 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4884,10 +2811,10 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4901,10 +2828,10 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4918,10 +2845,10 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4935,10 +2862,10 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4952,10 +2879,10 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4969,10 +2896,10 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4986,10 +2913,10 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5003,10 +2930,10 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5020,10 +2947,10 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5037,10 +2964,10 @@
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5054,10 +2981,10 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5071,10 +2998,10 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5088,10 +3015,10 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5105,10 +3032,10 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5122,10 +3049,10 @@
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -5139,10 +3066,10 @@
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -5156,10 +3083,10 @@
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -5173,10 +3100,10 @@
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -5190,10 +3117,10 @@
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -5207,10 +3134,10 @@
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -5224,10 +3151,10 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -5241,10 +3168,10 @@
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -5258,10 +3185,10 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -5275,10 +3202,10 @@
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -5292,10 +3219,10 @@
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -5309,10 +3236,10 @@
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -5326,10 +3253,10 @@
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -5343,10 +3270,10 @@
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -5360,10 +3287,10 @@
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -5377,10 +3304,10 @@
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -5394,10 +3321,10 @@
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -5411,10 +3338,10 @@
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -5428,10 +3355,10 @@
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -5445,10 +3372,10 @@
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -5462,10 +3389,10 @@
         <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -5479,10 +3406,10 @@
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -5496,10 +3423,10 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -5513,10 +3440,10 @@
         <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -5530,10 +3457,10 @@
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -5547,10 +3474,10 @@
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -5564,10 +3491,10 @@
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -5581,10 +3508,10 @@
         <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -5598,10 +3525,10 @@
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -5615,10 +3542,10 @@
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -5632,10 +3559,10 @@
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -5649,10 +3576,10 @@
         <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -5666,10 +3593,10 @@
         <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -5683,10 +3610,10 @@
         <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -5700,10 +3627,10 @@
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -5717,10 +3644,10 @@
         <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -5734,10 +3661,10 @@
         <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E68" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -5751,10 +3678,10 @@
         <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -5768,10 +3695,10 @@
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -5785,10 +3712,10 @@
         <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -5802,13 +3729,14 @@
         <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E72" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E72" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5818,8 +3746,8 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5834,10 +3762,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5845,7 +3773,7 @@
         <v>44708</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -5856,7 +3784,7 @@
         <v>44741</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -5867,7 +3795,7 @@
         <v>44771</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -5878,7 +3806,7 @@
         <v>44804</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5889,7 +3817,7 @@
         <v>44836</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -5900,7 +3828,7 @@
         <v>44866</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5911,7 +3839,7 @@
         <v>44900</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -5922,7 +3850,7 @@
         <v>44927</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -5933,7 +3861,7 @@
         <v>44958</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -5944,7 +3872,7 @@
         <v>44987</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -5955,7 +3883,7 @@
         <v>45015</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -5966,7 +3894,7 @@
         <v>45047</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -5977,7 +3905,7 @@
         <v>45083</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -5988,7 +3916,7 @@
         <v>45112</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -5999,7 +3927,7 @@
         <v>45140</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -6011,7 +3939,7 @@
         <v>44715</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -6023,7 +3951,7 @@
         <v>44741</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -6034,7 +3962,7 @@
         <v>44773</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -6045,7 +3973,7 @@
         <v>44833</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -6056,7 +3984,7 @@
         <v>44866</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -6067,7 +3995,7 @@
         <v>44900</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -6078,7 +4006,7 @@
         <v>44958</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -6089,7 +4017,7 @@
         <v>44987</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -6100,7 +4028,7 @@
         <v>44987</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -6111,7 +4039,7 @@
         <v>45016</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -6122,7 +4050,7 @@
         <v>45047</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -6133,7 +4061,7 @@
         <v>45111</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -6144,7 +4072,7 @@
         <v>45138</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -6155,7 +4083,7 @@
         <v>44715</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -6166,7 +4094,7 @@
         <v>44742</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -6177,7 +4105,7 @@
         <v>44774</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -6188,7 +4116,7 @@
         <v>44813</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -6199,7 +4127,7 @@
         <v>44838</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -6210,7 +4138,7 @@
         <v>44879</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -6221,7 +4149,7 @@
         <v>44922</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -6232,7 +4160,7 @@
         <v>44922</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -6243,7 +4171,7 @@
         <v>44981</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -6254,7 +4182,7 @@
         <v>45047</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -6265,7 +4193,7 @@
         <v>45047</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -6276,7 +4204,7 @@
         <v>45047</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -6287,7 +4215,7 @@
         <v>45133</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -6299,7 +4227,7 @@
         <v>45133</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -6311,7 +4239,7 @@
         <v>44712</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -6322,7 +4250,7 @@
         <v>44743</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -6333,7 +4261,7 @@
         <v>44772</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -6344,7 +4272,7 @@
         <v>44805</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -6355,7 +4283,7 @@
         <v>44834</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -6366,7 +4294,7 @@
         <v>44862</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -6377,7 +4305,7 @@
         <v>44896</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -6388,7 +4316,7 @@
         <v>44926</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -6399,7 +4327,7 @@
         <v>44957</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -6410,7 +4338,7 @@
         <v>44986</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -6421,7 +4349,7 @@
         <v>45016</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -6432,7 +4360,7 @@
         <v>45044</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -6443,7 +4371,7 @@
         <v>45076</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -6454,7 +4382,7 @@
         <v>45107</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -6465,7 +4393,7 @@
         <v>45135</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -6477,7 +4405,7 @@
         <v>44714</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -6488,7 +4416,7 @@
         <v>44743</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -6499,7 +4427,7 @@
         <v>44774</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -6510,7 +4438,7 @@
         <v>44805</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -6521,7 +4449,7 @@
         <v>44836</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -6532,7 +4460,7 @@
         <v>44866</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -6543,7 +4471,7 @@
         <v>44896</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -6554,7 +4482,7 @@
         <v>44928</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -6565,7 +4493,7 @@
         <v>44958</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -6576,7 +4504,7 @@
         <v>44986</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -6587,7 +4515,7 @@
         <v>45017</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -6598,7 +4526,7 @@
         <v>45047</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -6609,7 +4537,7 @@
         <v>45108</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6620,7 +4548,7 @@
         <v>45140</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -6643,10 +4571,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632B089A-5F14-499D-895B-7DCA63C7442F}">
-  <dimension ref="A2:B8"/>
+  <dimension ref="A2:L16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6658,367 +4586,65 @@
     <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="10">
+        <v>84</v>
+      </c>
+      <c r="B3">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:12">
       <c r="A4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="10">
+        <v>82</v>
+      </c>
+      <c r="B4">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:12">
       <c r="A5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="10">
+        <v>83</v>
+      </c>
+      <c r="B5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:12">
       <c r="A6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="10">
+        <v>86</v>
+      </c>
+      <c r="B6">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:12">
       <c r="A7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="10">
+        <v>85</v>
+      </c>
+      <c r="B7">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:12">
       <c r="A8" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="10">
+        <v>75</v>
+      </c>
+      <c r="B8">
         <v>92</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
-      <x14:slicerList>
-        <x14:slicer r:id="rId3"/>
-      </x14:slicerList>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF7185A-8110-455B-B2BC-16984DD5F5FC}">
-  <dimension ref="A2:B37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="12">
-        <v>44708</v>
-      </c>
-      <c r="B6" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="12">
-        <v>44741</v>
-      </c>
-      <c r="B8" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="12">
-        <v>44771</v>
-      </c>
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="12">
-        <v>44804</v>
-      </c>
-      <c r="B12" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="12">
-        <v>44836</v>
-      </c>
-      <c r="B14" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="12">
-        <v>44866</v>
-      </c>
-      <c r="B16" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11" t="s">
+    <row r="16" spans="1:12">
+      <c r="L16" t="s">
         <v>87</v>
-      </c>
-      <c r="B17" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="12">
-        <v>44900</v>
-      </c>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="12">
-        <v>44927</v>
-      </c>
-      <c r="B21" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="12">
-        <v>44958</v>
-      </c>
-      <c r="B23" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="12">
-        <v>44987</v>
-      </c>
-      <c r="B25" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B27" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="12">
-        <v>45047</v>
-      </c>
-      <c r="B29" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="12">
-        <v>45083</v>
-      </c>
-      <c r="B31" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="12">
-        <v>45112</v>
-      </c>
-      <c r="B33" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="12">
-        <v>45140</v>
-      </c>
-      <c r="B35" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="10">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
